--- a/biology/Zoologie/Hyloxalus_fuliginosus/Hyloxalus_fuliginosus.xlsx
+++ b/biology/Zoologie/Hyloxalus_fuliginosus/Hyloxalus_fuliginosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloxalus fuliginosus est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloxalus fuliginosus est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Napo en Équateur[2]. Elle se rencontre de 1 660 à 1 910 m d'altitude sur le versant amazonien de la cordillère Orientale.
-Les spécimens de Colombie et du Venezuela qui était attribués à Hyloxalus fuliginosus appartiennent à d'autres espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Napo en Équateur. Elle se rencontre de 1 660 à 1 910 m d'altitude sur le versant amazonien de la cordillère Orientale.
+Les spécimens de Colombie et du Venezuela qui était attribués à Hyloxalus fuliginosus appartiennent à d'autres espèces.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 23,6 à 24,3 mm et les femelles de 27,8 à 32,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 23,6 à 24,3 mm et les femelles de 27,8 à 32,5 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jiménez de la Espada, 1870 : Faunae neotropicalis species quaedam nondum cognitae. Jornal de sciencias mathematicas, physicas e naturaes, Academia Real das Sciencas de Lisboa, vol. 3, p. 57-65 (texte intégral).</t>
         </is>
